--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/JavaScript/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/javascript/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F18CA60-9381-0445-B959-2CB43F074BB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29710B99-D29D-3540-807F-73957F508B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="5460" windowWidth="28300" windowHeight="17440" xr2:uid="{E0153C5F-C88B-8D4E-8EDC-8238C3A7F19A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25000" windowHeight="15540" xr2:uid="{E0153C5F-C88B-8D4E-8EDC-8238C3A7F19A}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -391,96 +391,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58429907-F4B7-4046-BAE5-CEBC0AD5C895}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="D4">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>5000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
+        <v>1000</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="C5">
+        <v>3000</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>10000</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>20000</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>30000</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>40000</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>50000</v>
       </c>
     </row>
